--- a/JupyterNB-Python_v3.11/ML_DATA/visualize_output/GradientBoosting_demo.pkl/predictions_with_formatting.xlsx
+++ b/JupyterNB-Python_v3.11/ML_DATA/visualize_output/GradientBoosting_demo.pkl/predictions_with_formatting.xlsx
@@ -7475,10 +7475,10 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Obesity_Type_I</t>
-        </is>
-      </c>
-      <c r="S89" s="1" t="inlineStr">
+          <t>Obesity_Type_II</t>
+        </is>
+      </c>
+      <c r="S89" s="2" t="inlineStr">
         <is>
           <t>Obesity_Type_I</t>
         </is>
@@ -12136,10 +12136,10 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Obesity_Type_I</t>
-        </is>
-      </c>
-      <c r="S148" s="2" t="inlineStr">
+          <t>Obesity_Type_II</t>
+        </is>
+      </c>
+      <c r="S148" s="1" t="inlineStr">
         <is>
           <t>Obesity_Type_II</t>
         </is>
